--- a/TsakonianDB/tables/types.xlsx
+++ b/TsakonianDB/tables/types.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Tsakonian tools\TsakonianDB\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BC7485-2B3B-4156-B556-965887B2EE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA0A67D-0EFD-4A38-8BB5-6A12C1FAD159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>notes</t>
   </si>
@@ -48,9 +48,6 @@
     <t>A5</t>
   </si>
   <si>
-    <t>A6</t>
-  </si>
-  <si>
     <t>ο, pl. -ε</t>
   </si>
   <si>
@@ -63,24 +60,6 @@
     <t>ο, pl. -ουνε</t>
   </si>
   <si>
-    <t>Β1</t>
-  </si>
-  <si>
-    <t>Β2</t>
-  </si>
-  <si>
-    <t>Β3</t>
-  </si>
-  <si>
-    <t>Β4</t>
-  </si>
-  <si>
-    <t>Β5</t>
-  </si>
-  <si>
-    <t>Β6</t>
-  </si>
-  <si>
     <t>α, pl. -ε</t>
   </si>
   <si>
@@ -99,24 +78,9 @@
     <t>α, pl. irregular</t>
   </si>
   <si>
-    <t>Γ1</t>
-  </si>
-  <si>
     <t>το, pl. -ματα</t>
   </si>
   <si>
-    <t>Γ2</t>
-  </si>
-  <si>
-    <t>Γ3</t>
-  </si>
-  <si>
-    <t>Γ4</t>
-  </si>
-  <si>
-    <t>Γ5</t>
-  </si>
-  <si>
     <t>το, pl. -α</t>
   </si>
   <si>
@@ -132,9 +96,6 @@
     <t>ο, pl. irregular</t>
   </si>
   <si>
-    <t>Δ1</t>
-  </si>
-  <si>
     <t>-ε, -α, -ε</t>
   </si>
   <si>
@@ -159,28 +120,85 @@
     <t>-ε, -ε, -ιου</t>
   </si>
   <si>
-    <t>Δ2</t>
-  </si>
-  <si>
-    <t>Δ3</t>
-  </si>
-  <si>
-    <t>Δ4</t>
-  </si>
-  <si>
-    <t>Δ5</t>
-  </si>
-  <si>
-    <t>Δ6</t>
-  </si>
-  <si>
-    <t>Δ7</t>
-  </si>
-  <si>
-    <t>Δ8</t>
-  </si>
-  <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>-ι, -α, -ι</t>
+  </si>
+  <si>
+    <t>Θ1</t>
+  </si>
+  <si>
+    <t>Θ2</t>
+  </si>
+  <si>
+    <t>Θ3</t>
+  </si>
+  <si>
+    <t>Θ4</t>
+  </si>
+  <si>
+    <t>Θ5</t>
+  </si>
+  <si>
+    <t>Ε1</t>
+  </si>
+  <si>
+    <t>Ε2</t>
+  </si>
+  <si>
+    <t>Ε3</t>
+  </si>
+  <si>
+    <t>Ε4</t>
+  </si>
+  <si>
+    <t>Ε5</t>
+  </si>
+  <si>
+    <t>Ε6</t>
+  </si>
+  <si>
+    <t>Ε7</t>
+  </si>
+  <si>
+    <t>Ε8</t>
+  </si>
+  <si>
+    <t>Ε9</t>
+  </si>
+  <si>
+    <t>Α0</t>
+  </si>
+  <si>
+    <t>Θ0</t>
+  </si>
+  <si>
+    <t>Υ0</t>
+  </si>
+  <si>
+    <t>Υ1</t>
+  </si>
+  <si>
+    <t>Υ2</t>
+  </si>
+  <si>
+    <t>Υ3</t>
+  </si>
+  <si>
+    <t>Υ4</t>
+  </si>
+  <si>
+    <t>Υ5</t>
+  </si>
+  <si>
+    <t>το, pl. -ια</t>
+  </si>
+  <si>
+    <t>Α6</t>
+  </si>
+  <si>
+    <t>ο, pl. -αε</t>
   </si>
 </sst>
 </file>
@@ -308,11 +326,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}" name="Tabla2" displayName="Tabla2" ref="A1:B26" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B26" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}" name="Tabla2" displayName="Tabla2" ref="A1:B30" totalsRowShown="0" headerRowDxfId="3" dataDxfId="0">
+  <autoFilter ref="A1:B30" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C1DD779A-CDEE-46F1-B76C-117DD684DD75}" name="type" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{4C03C951-46D8-47E8-8244-B52757673F4E}" name="notes" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C1DD779A-CDEE-46F1-B76C-117DD684DD75}" name="type" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4C03C951-46D8-47E8-8244-B52757673F4E}" name="notes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -581,9 +599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -593,7 +613,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -601,39 +621,39 @@
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -641,163 +661,191 @@
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/TsakonianDB/tables/types.xlsx
+++ b/TsakonianDB/tables/types.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Tsakonian tools\TsakonianDB\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA0A67D-0EFD-4A38-8BB5-6A12C1FAD159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AB8AC9-4174-437B-B114-AAF2AAFFAFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>notes</t>
   </si>
@@ -195,10 +195,22 @@
     <t>το, pl. -ια</t>
   </si>
   <si>
-    <t>Α6</t>
-  </si>
-  <si>
-    <t>ο, pl. -αε</t>
+    <t>Α</t>
+  </si>
+  <si>
+    <t>ο</t>
+  </si>
+  <si>
+    <t>Θ</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>Υ</t>
+  </si>
+  <si>
+    <t>το</t>
   </si>
 </sst>
 </file>
@@ -326,11 +338,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}" name="Tabla2" displayName="Tabla2" ref="A1:B30" totalsRowShown="0" headerRowDxfId="3" dataDxfId="0">
-  <autoFilter ref="A1:B30" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}" name="Tabla2" displayName="Tabla2" ref="A1:B31" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B31" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C1DD779A-CDEE-46F1-B76C-117DD684DD75}" name="type" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4C03C951-46D8-47E8-8244-B52757673F4E}" name="notes" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C1DD779A-CDEE-46F1-B76C-117DD684DD75}" name="type" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{4C03C951-46D8-47E8-8244-B52757673F4E}" name="notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -599,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,183 +681,195 @@
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/TsakonianDB/tables/types.xlsx
+++ b/TsakonianDB/tables/types.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Tsakonian tools\TsakonianDB\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AB8AC9-4174-437B-B114-AAF2AAFFAFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC093EC0-CFB4-4E6E-A906-720BC6275E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>-ο, -α, -ο</t>
   </si>
   <si>
-    <t>-ε, -α, -ου</t>
-  </si>
-  <si>
     <t>-ε, -ε, -ε</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>το</t>
+  </si>
+  <si>
+    <t>-ε, -α, -ιου</t>
   </si>
 </sst>
 </file>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +625,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -753,15 +753,15 @@
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -785,31 +785,31 @@
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
@@ -817,58 +817,58 @@
     </row>
     <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
